--- a/notes/GxExM matrix.xlsx
+++ b/notes/GxExM matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Research/Publications/Chapter 4/Version 2/GitHub/cndc_bayesian_eval/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-110536913573078057504/My Drive/Research/Publications/Chapter 4/Version 2/GitHub/cndc_bayesian_eval/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D320739-EF90-4A49-93E4-3793BC76F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7A1A0-A118-7246-AD1E-DE163E58A1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="2180" windowWidth="24960" windowHeight="18280" activeTab="1" xr2:uid="{82854D4D-AFB8-F842-B0AE-1E28B47F0F58}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="24960" windowHeight="16260" activeTab="1" xr2:uid="{82854D4D-AFB8-F842-B0AE-1E28B47F0F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Location</t>
   </si>
@@ -477,6 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,19 +489,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,10 +988,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="29">
+      <c r="J6" s="30">
         <v>10</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="26">
         <v>11.6</v>
       </c>
@@ -1015,24 +1015,24 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <f>20*154</f>
         <v>3080</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27">
         <f>19.1*132</f>
         <v>2521.2000000000003</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27">
         <f>22.7*138</f>
         <v>3132.6</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1112,28 +1112,28 @@
       <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1367,12 +1367,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -1389,6 +1383,12 @@
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="L8:P8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,10 +1415,10 @@
       <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -1456,13 +1456,13 @@
       <c r="C3" s="13">
         <v>6.5</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>13.6</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="32">
         <v>59000</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>26</v>
       </c>
       <c r="G3">
@@ -1473,16 +1473,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="13">
         <v>5</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4">
         <v>4.96</v>
       </c>
@@ -1491,16 +1491,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5">
         <v>4.9400000000000004</v>
       </c>
@@ -1509,16 +1509,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="13">
         <v>6.5</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
       <c r="G6">
         <v>4.96</v>
       </c>
@@ -1527,16 +1527,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13">
         <v>5.5</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7">
         <v>4.95</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -1554,13 +1554,13 @@
       <c r="C8" s="13">
         <v>6</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="32">
+        <v>38000</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G8">
@@ -1571,18 +1571,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
       <c r="G9">
         <v>4.74</v>
       </c>
@@ -1591,7 +1589,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
@@ -1600,13 +1598,13 @@
       <c r="C10" s="13">
         <v>6.5</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>10</v>
       </c>
       <c r="E10" s="13">
         <v>29000</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G10">
@@ -1617,18 +1615,18 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="13">
         <v>2.5</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="13">
         <v>44000</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="33"/>
       <c r="G11">
         <v>4.7699999999999996</v>
       </c>
@@ -1637,7 +1635,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -1646,13 +1644,13 @@
       <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>11.6</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="33" t="s">
         <v>58</v>
       </c>
       <c r="G12">
@@ -1663,16 +1661,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13">
         <v>4.75</v>
       </c>
@@ -1681,16 +1679,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="13">
         <v>6</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14">
         <v>4.75</v>
       </c>
@@ -1699,16 +1697,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="13">
         <v>6.5</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15">
         <v>4.74</v>
       </c>
@@ -1717,16 +1715,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="13">
         <v>5.5</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16">
         <v>4.75</v>
       </c>
@@ -1734,11 +1732,11 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="23" t="s">
         <v>54</v>
       </c>
@@ -1751,13 +1749,16 @@
       <c r="F18" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
@@ -1773,8 +1774,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F16"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
